--- a/01_Conditions/VanillaC4/flow_definitions.xlsx
+++ b/01_Conditions/VanillaC4/flow_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RiverArchitect-tutorial\01_Conditions\VanillaC4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87D25-05E8-463E-8E16-1C539C482531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DDA9C-D088-452D-ACF3-946B568A797F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1500" windowWidth="19110" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2055" windowWidth="10050" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flows" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D321-4DD0-8C2E-4B169578BF12}"/>
+              <c16:uniqueId val="{00000000-3605-4376-A3DB-DE8AEDDEC7D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
